--- a/election_votar_data/LOHAGARA/CHUNATI/152611/152611_com_1908_male_without_photo_107_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHUNATI/152611/152611_com_1908_male_without_photo_107_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="45.5" customWidth="1" min="4" max="4"/>
     <col width="38" customWidth="1" min="5" max="5"/>
-    <col width="46" customWidth="1" min="6" max="6"/>
+    <col width="26.5" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -30931,7 +30931,7 @@
       </c>
       <c r="F726" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক জন্ম তারিখ:০৭/০১/১৯৯৬</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G726" s="3" t="inlineStr">
@@ -41557,7 +41557,7 @@
       </c>
       <c r="F979" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ:০৫/০৮/১৯৭৯</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G979" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/CHUNATI/152611/152611_com_1908_male_without_photo_107_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHUNATI/152611/152611_com_1908_male_without_photo_107_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="45.5" customWidth="1" min="4" max="4"/>
     <col width="38" customWidth="1" min="5" max="5"/>
-    <col width="26.5" customWidth="1" min="6" max="6"/>
+    <col width="46" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -30931,7 +30931,7 @@
       </c>
       <c r="F726" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>শ্রমিক জন্ম তারিখ:০৭/০১/১৯৯৬</t>
         </is>
       </c>
       <c r="G726" s="3" t="inlineStr">
@@ -41557,7 +41557,7 @@
       </c>
       <c r="F979" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ:০৫/০৮/১৯৭৯</t>
         </is>
       </c>
       <c r="G979" s="3" t="inlineStr">
